--- a/data/rates_data/rates_metadata.xlsx
+++ b/data/rates_data/rates_metadata.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\ShrinkingCities\affordability\data_2021\rates_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\GitHub\water-affordability\data\rates_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="11592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="11592"/>
   </bookViews>
   <sheets>
-    <sheet name="rateClass" sheetId="1" r:id="rId1"/>
+    <sheet name="ratesMetadata" sheetId="1" r:id="rId1"/>
     <sheet name="rateTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>pwsid</t>
   </si>
@@ -209,16 +209,7 @@
     </r>
   </si>
   <si>
-    <t>analyst</t>
-  </si>
-  <si>
-    <t>Who digitized the rates data. Initials or name.</t>
-  </si>
-  <si>
     <t>updated</t>
-  </si>
-  <si>
-    <t>Was any QA/QC needed/performed. Initials or name.</t>
   </si>
   <si>
     <t>Anything of interest, questions, assumptions, etc</t>
@@ -862,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,66 +924,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1069,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1085,7 +1060,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1101,7 +1076,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1122,10 +1097,10 @@
     </row>
     <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,15 +1156,15 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/rates_data/rates_metadata.xlsx
+++ b/data/rates_data/rates_metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\GitHub\water-affordability\data\rates_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3B6C7-F2B3-40E0-BF23-C359E98B5810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="11592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ratesMetadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>pwsid</t>
   </si>
@@ -471,12 +472,24 @@
       </rPr>
       <t>" is in the list.</t>
     </r>
+  </si>
+  <si>
+    <t>min_wage</t>
+  </si>
+  <si>
+    <t>Minimum wage for that locality; based on: https://www.epi.org/minimum-wage-tracker/#</t>
+  </si>
+  <si>
+    <t>min_year</t>
+  </si>
+  <si>
+    <t>Year minimum wage was in effect - try to match with census year used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,21 +865,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="96.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -874,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -882,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -898,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -922,7 +935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -930,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -938,7 +951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -946,7 +959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -954,7 +967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -962,12 +975,28 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -977,21 +1006,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="96.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1103,7 +1132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1143,7 +1172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
